--- a/work.xlsx
+++ b/work.xlsx
@@ -350,15 +350,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
